--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -3,21 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91958\eclipse-workspace2\com.ecommerc.flipkart.framework\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91958\git\FlipKartEcommerce\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7C181D-EB84-4696-9DF3-8E8C97EA0FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A765B6B-9956-4E24-80FD-B9C7E3D20407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="38">
   <si>
     <t>Mobiles Name</t>
   </si>
@@ -34,12 +35,118 @@
   </si>
   <si>
     <t>APPLE iPhone</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>APPLE iPhone 11 (White, 64 GB)</t>
+  </si>
+  <si>
+    <t>APPLE iPhone 11 (White, 128 GB)</t>
+  </si>
+  <si>
+    <t>APPLE iPhone 11 (Black, 64 GB)</t>
+  </si>
+  <si>
+    <t>APPLE iPhone 14 (Starlight, 128 GB)</t>
+  </si>
+  <si>
+    <t>APPLE iPhone 14 (Purple, 128 GB)</t>
+  </si>
+  <si>
+    <t>APPLE iPhone 14 (Midnight, 128 GB)</t>
+  </si>
+  <si>
+    <t>APPLE iPhone 14 (Blue, 128 GB)</t>
+  </si>
+  <si>
+    <t>APPLE iPhone 11 (Black, 128 GB)</t>
+  </si>
+  <si>
+    <t>APPLE iPhone 13 (Pink, 128 GB)</t>
+  </si>
+  <si>
+    <t>APPLE iPhone 13 (Blue, 128 GB)</t>
+  </si>
+  <si>
+    <t>APPLE iPhone 13 (Starlight, 128 GB)</t>
+  </si>
+  <si>
+    <t>APPLE iPhone 14 Plus (Purple, 128 GB)</t>
+  </si>
+  <si>
+    <t>APPLE iPhone 14 Plus (Starlight, 128 GB)</t>
+  </si>
+  <si>
+    <t>APPLE iPhone 14 Plus (Midnight, 128 GB)</t>
+  </si>
+  <si>
+    <t>APPLE iPhone 14 Plus (Blue, 128 GB)</t>
+  </si>
+  <si>
+    <t>APPLE iPhone 14 (Purple, 256 GB)</t>
+  </si>
+  <si>
+    <t>APPLE iPhone 13 (Midnight, 128 GB)</t>
+  </si>
+  <si>
+    <t>APPLE iPhone 14 ((PRODUCT)RED, 128 GB)</t>
+  </si>
+  <si>
+    <t>APPLE iPhone 14 (Blue, 256 GB)</t>
+  </si>
+  <si>
+    <t>APPLE iPhone 14 Plus (Blue, 256 GB)</t>
+  </si>
+  <si>
+    <t>APPLE iPhone 14 Plus (Midnight, 256 GB)</t>
+  </si>
+  <si>
+    <t>APPLE iPhone 14 (Midnight, 256 GB)</t>
+  </si>
+  <si>
+    <t>APPLE iPhone 14 Plus ((PRODUCT)RED, 128 GB)</t>
+  </si>
+  <si>
+    <t>APPLE iPhone 12 (Black, 64 GB)</t>
+  </si>
+  <si>
+    <t>₹39,999</t>
+  </si>
+  <si>
+    <t>₹46,999</t>
+  </si>
+  <si>
+    <t>₹71,999</t>
+  </si>
+  <si>
+    <t>₹47,999</t>
+  </si>
+  <si>
+    <t>₹62,999</t>
+  </si>
+  <si>
+    <t>₹80,999</t>
+  </si>
+  <si>
+    <t>₹81,999</t>
+  </si>
+  <si>
+    <t>₹90,999</t>
+  </si>
+  <si>
+    <t>₹51,999</t>
+  </si>
+  <si>
+    <t>APPLE iPhone 14 (Starlight, 256 GB)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -362,13 +469,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.44140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="32.44140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -377,12 +484,12 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>1</v>
       </c>
     </row>
@@ -390,4 +497,295 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF647FB5-406D-41EF-B1B4-743B52378A3F}">
+  <dimension ref="A1:B34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="41.6640625"/>
+    <col min="2" max="2" customWidth="true" width="46.88671875"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>